--- a/data/trans_bre/P54_A_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_5_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,22 +642,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,86; 7,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 1,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 3,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,26; 110,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>207,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>194,97%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-11,61; 6,22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 2,69</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 2,02</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-62,72; 106,55</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,74; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,82%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-3,61; 10,36</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 1,31</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 2,18</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-27,06; 184,29</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,37; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,06%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,56; 8,08</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 0,28</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 0,63</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 150,44</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>34,29%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-29,11%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>131,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 5,63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 0,54</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 1,26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 80,63</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-89,09; 131,83</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-11,05; 617,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/P54_A_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_5_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,34 +611,24 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,63</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-25,26%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-11,97%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>-3.62623793794271</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.2068226576251534</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.553964541908381</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.2525698376925011</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.2149978052172895</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -637,204 +636,124 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-16,86; 7,1</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 1,14</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 3,1</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-77,26; 110,41</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.86330057382343</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.030142078971386</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.4194202926679108</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.7726293366482868</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.102896806050101</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.537909188791621</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.152398792266213</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.104129292695401</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,75%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>207,7%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>194,97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,61; 6,22</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 2,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,18; 2,02</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-62,72; 106,55</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-75,74; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.08021173995217123</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.024635048162973</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.9147028861226418</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.00750686362144565</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>2.180561620291023</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.906221886773499</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>34,6%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>8,1%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>87,82%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-11.60988078359679</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.4668537070634052</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2636862845277155</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.6272207848884795</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,61; 10,36</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 1,31</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 2,18</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-27,06; 184,29</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-81,37; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.217315344948092</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.187790195725625</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.393415205218612</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.065511226111919</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,172 +761,169 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,38</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>63,23%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-70,52%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-41,06%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.311281541242628</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.01544575521782868</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.7498562515776375</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.3459812604931352</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.03294346620329533</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.8200618717191372</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 8,08</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,48; 0,28</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 0,63</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,73; 150,44</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.612153389923503</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.9706326674710197</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.9811105779107216</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2706475588992167</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.8594147997694584</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.35903072287845</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.489641608268526</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.784084478711442</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.842897814499331</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>34,29%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-29,11%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>131,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 5,63</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 0,54</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 1,26</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,89; 80,63</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-89,09; 131,83</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-11,05; 617,16</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.7965296964988975</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4618134327954219</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.9693871238495235</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.07403881521360854</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.853397912135588</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.760506901975714</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.802334860453753</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.5877148068243037</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.06530099647196227</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3394803211882161</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.752623974888361</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.08104230221928005</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.643203149100954</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.499494463065237</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.012389876419402</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.7012140808867319</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>9.40669282038237</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>8.939725486406255</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
